--- a/statistics/random_walk/inter_randomwalk_modified.xlsx
+++ b/statistics/random_walk/inter_randomwalk_modified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\random_walk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E62893-34FB-46BF-A3C7-43AA1026FC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8324F137-C98F-4530-9D0E-C3F1E7B830EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E63E39B-2059-4DE7-9978-92DC12C1DCBE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="inter_randomwalk" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">inter_randomwalk_modified!$A$1:$E$31</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">inter_randomwalk_modified!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
   <si>
     <t>graph_file</t>
   </si>
@@ -143,20 +143,47 @@
     <t>science &amp; consp.</t>
   </si>
   <si>
-    <t>wn &amp; consp.</t>
-  </si>
-  <si>
     <t>WvP &amp; MR</t>
   </si>
   <si>
     <t>Modified</t>
+  </si>
+  <si>
+    <t>science_top_modified_conspiracy_top_modified.txt</t>
+  </si>
+  <si>
+    <t>science_controversial_modified_conspiracy_controversial_modified.txt</t>
+  </si>
+  <si>
+    <t>lgbt_top_modified_Conservative_top_modified.txt</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>lgbt_both_modified_Conservative_both_modified.txt</t>
+  </si>
+  <si>
+    <t>conspiracy0_top_modified_space_top_modified.txt</t>
+  </si>
+  <si>
+    <t>conspiracy0_both_modified_space_both_modified.txt</t>
+  </si>
+  <si>
+    <t>lgbt &amp; Cons.</t>
+  </si>
+  <si>
+    <t>no inter</t>
+  </si>
+  <si>
+    <t>space &amp; consp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +201,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -243,24 +278,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -367,11 +384,148 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="9" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -379,41 +533,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,8 +641,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0507C849-6AA0-42A9-B6B4-9F9F2EBA1DAF}" name="inter_randomwalk_modified" displayName="inter_randomwalk_modified" ref="A1:E31" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:E31" xr:uid="{0507C849-6AA0-42A9-B6B4-9F9F2EBA1DAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0507C849-6AA0-42A9-B6B4-9F9F2EBA1DAF}" name="inter_randomwalk_modified" displayName="inter_randomwalk_modified" ref="A1:E55" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E55" xr:uid="{0507C849-6AA0-42A9-B6B4-9F9F2EBA1DAF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BFE36EA8-BCC4-445D-B77D-4EE5BE204371}" uniqueName="1" name="graph_file" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{4E5502A5-E560-4E10-B7C5-1B07429D0128}" uniqueName="2" name="n_experiments" queryTableFieldId="2" dataDxfId="3"/>
@@ -778,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A509C73-DD82-42A2-90A3-C21D415D7631}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H10" sqref="H10:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -829,24 +1002,24 @@
       <c r="E2">
         <v>15.402900000000001</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -864,32 +1037,32 @@
       <c r="E3">
         <v>20.426500000000001</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -909,572 +1082,1022 @@
       <c r="E4">
         <v>32.209000000000003</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="8">
         <v>0.79790000000000005</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="11">
         <v>0.78549999999999998</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="9">
         <v>0.80279999999999996</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="11">
         <v>0.72219999999999995</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="9">
         <v>0.83589999999999998</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="11">
         <v>0.7</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="9">
         <v>0.64539999999999997</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="11">
         <v>0.81299999999999994</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="10">
         <v>0.65249999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.79790000000000005</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>14.407999999999999</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>15.8</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
-      <c r="K5">
+      <c r="I5" s="32">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="K5" s="33">
         <v>0.77480000000000004</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="23">
+      <c r="L5" s="31">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0.99</v>
+      </c>
+      <c r="N5" s="34">
         <v>0.71699999999999997</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6">
+      <c r="O5" s="33">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P5" s="31">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="Q5" s="31">
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>0.72219999999999995</v>
+        <v>0.69550000000000001</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>25.997499999999999</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="15">
+        <v>19.241</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.6129</v>
+      <c r="I6" s="12">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.88880000000000003</v>
       </c>
       <c r="K6" s="1">
-        <v>0.81540000000000001</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.6986</v>
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.97009999999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0.88429999999999997</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.57169999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.7339</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0.9425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.64539999999999997</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>32.827500000000001</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0.98650000000000004</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.88880000000000003</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="O7" s="21">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0.7339</v>
-      </c>
-      <c r="Q7" s="22">
-        <v>0.9425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="15">
+        <v>30.904499999999999</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.997</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0.78549999999999998</v>
+        <v>0.95389999999999997</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>17.192900000000002</v>
+        <v>17</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="28">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="30">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O8" s="28">
+        <v>0.8135</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>0.85429999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>0.83589999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>19.627500000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>0.81299999999999994</v>
+        <v>0.81689999999999996</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>41.390500000000003</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.80279999999999996</v>
+        <v>0.79790000000000005</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>14.094799999999999</v>
+        <v>14.407999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>26.331499999999998</v>
+        <v>25.997499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.65249999999999997</v>
+        <v>0.64539999999999997</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13">
-        <v>32.131500000000003</v>
+        <v>32.827500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.81920000000000004</v>
+        <v>0.78549999999999998</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>14.799200000000001</v>
+        <v>17.192900000000002</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.6986</v>
+        <v>0.83589999999999998</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>36.502499999999998</v>
+        <v>19.627500000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.57999999999999996</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>46.726999999999997</v>
+        <v>41.390500000000003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0.6129</v>
+        <v>0.80279999999999996</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>17.060300000000002</v>
+        <v>14.094799999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>0.98299999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>10.523999999999999</v>
+        <v>26.331499999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.88429999999999997</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>20.055499999999999</v>
+        <v>32.131500000000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.81540000000000001</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>14.861700000000001</v>
+        <v>14.799200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.67220000000000002</v>
+        <v>0.6986</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>34.203000000000003</v>
+        <v>36.502499999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>0.57169999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22">
-        <v>46.738700000000001</v>
+        <v>46.726999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0.98650000000000004</v>
+        <v>0.6129</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>15.096399999999999</v>
+        <v>17.060300000000002</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>0.97009999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>31.624500000000001</v>
+        <v>10.523999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.97199999999999998</v>
+        <v>0.88429999999999997</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>36.204000000000001</v>
+        <v>20.055499999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.88880000000000003</v>
+        <v>0.81540000000000001</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>20.1145</v>
+        <v>14.861700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>0.97089999999999999</v>
+        <v>0.67220000000000002</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>2.2905000000000002</v>
+        <v>34.203000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>0.7339</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>59.645000000000003</v>
+        <v>46.738700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.98029999999999995</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>15.1753</v>
+        <v>15.096399999999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0.97499999999999998</v>
+        <v>0.97009999999999996</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>31.398</v>
+        <v>31.624500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31">
-        <v>0.9425</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
+        <v>36.204000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>20.1145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2.2905000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>0.7339</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>59.645000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>15.1753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>31.398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0.9425</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
         <v>38.402999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="21">
+        <v>15.7981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="21">
+        <v>19.241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="21">
+        <v>30.904499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="21">
+        <v>17.103899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="21">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="21">
+        <v>38.451500000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0.99539999999999995</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="21">
+        <v>15.6945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.997</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="21">
+        <v>13.003500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="21">
+        <v>23.782499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="21">
+        <v>16.095800000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="21">
+        <v>17.655000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="21">
+        <v>32.305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="21">
+        <v>18.0214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="21">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="21">
+        <v>31.072500000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="21">
+        <v>0.8135</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="21">
+        <v>70.823999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="21">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="21">
+        <v>17.8659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="21">
+        <v>37.200499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="21">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="21">
+        <v>71.471999999999994</v>
       </c>
     </row>
   </sheetData>
